--- a/data/dataThongtinhanghoa_case1.xlsx
+++ b/data/dataThongtinhanghoa_case1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Soluong</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Cái</t>
+  </si>
+  <si>
+    <t>Xoa</t>
   </si>
 </sst>
 </file>
@@ -370,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -386,7 +389,7 @@
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -405,8 +408,11 @@
       <c r="F1" t="s">
         <v>1</v>
       </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -426,11 +432,11 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
